--- a/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
+++ b/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
   <si>
     <t>Designator</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>8 MHz</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
   </si>
 </sst>
 </file>
@@ -911,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,7 +2162,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>

--- a/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
+++ b/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="168">
   <si>
     <t>Designator</t>
   </si>
@@ -313,18 +313,12 @@
     <t>Inductor</t>
   </si>
   <si>
-    <t>V0805HD</t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
     <t>L5</t>
   </si>
   <si>
-    <t>INDC3216</t>
-  </si>
-  <si>
     <t>47uH</t>
   </si>
   <si>
@@ -512,6 +506,18 @@
   </si>
   <si>
     <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>Inductor Murata LQH31CN470K03L</t>
+  </si>
+  <si>
+    <t>1206[3216 metric]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor Murata QM21FN100M80L </t>
+  </si>
+  <si>
+    <t>0805[2012 metric]</t>
   </si>
 </sst>
 </file>
@@ -914,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="D30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>35</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>98</v>
@@ -1627,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>35</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>35</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="E33" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>35</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="E34" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>35</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="E35" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>35</v>
@@ -1733,22 +1739,22 @@
     </row>
     <row r="36" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" s="11">
         <v>9</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>35</v>
@@ -1756,22 +1762,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>35</v>
@@ -1779,22 +1785,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>35</v>
@@ -1802,22 +1808,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>35</v>
@@ -1825,22 +1831,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>35</v>
@@ -1848,22 +1854,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>35</v>
@@ -1871,22 +1877,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>35</v>
@@ -1894,22 +1900,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>35</v>
@@ -1917,22 +1923,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>35</v>
@@ -1940,22 +1946,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>35</v>
@@ -1963,22 +1969,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>35</v>
@@ -1986,22 +1992,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>35</v>
@@ -2009,22 +2015,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -2032,22 +2038,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -2055,22 +2061,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -2078,22 +2084,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>35</v>
@@ -2101,22 +2107,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>35</v>
@@ -2124,22 +2130,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>35</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="E54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>
@@ -2170,22 +2176,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>35</v>

--- a/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
+++ b/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="D30:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
+++ b/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
   <si>
     <t>Designator</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>0805[2012 metric]</t>
+  </si>
+  <si>
+    <t>Use Wire-wound (winding ) type !</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,6 +620,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -920,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,6 +936,7 @@
     <col min="4" max="4" width="32.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1619,7 +1624,7 @@
         <v>99</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1642,7 +1647,7 @@
         <v>101</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1710,9 +1715,7 @@
       <c r="F34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -1733,9 +1736,7 @@
       <c r="F35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">

--- a/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
+++ b/PCB/PCB_project_v4/TOF_rangefinder_v4b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="173">
   <si>
     <t>Designator</t>
   </si>
@@ -115,9 +115,6 @@
     <t>C37</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>100uF</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>Motor</t>
   </si>
   <si>
-    <t>Header, 3-Pin</t>
-  </si>
-  <si>
     <t>HDR1X3</t>
   </si>
   <si>
@@ -496,9 +490,6 @@
     <t>X2</t>
   </si>
   <si>
-    <t>Quartz_SX-6 (SMD06035C4)</t>
-  </si>
-  <si>
     <t>SX-6 QUARTZ</t>
   </si>
   <si>
@@ -521,6 +512,27 @@
   </si>
   <si>
     <t>Use Wire-wound (winding ) type !</t>
+  </si>
+  <si>
+    <t>Header, 3-Pin - PLS-3</t>
+  </si>
+  <si>
+    <t>PLS-3</t>
+  </si>
+  <si>
+    <t>Capacitor, 5mm between pins</t>
+  </si>
+  <si>
+    <t>&gt;10V</t>
+  </si>
+  <si>
+    <t>Quartz,  3mm between pins</t>
+  </si>
+  <si>
+    <t>Quartz_SX-6 (SMD06035C4) - 6x3.5mm</t>
+  </si>
+  <si>
+    <t>SMD05032C4 can be used</t>
   </si>
 </sst>
 </file>
@@ -924,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,982 +1232,982 @@
         <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="E34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="E35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="11">
         <v>9</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
